--- a/migforecasting/clustering/avg profile.xlsx
+++ b/migforecasting/clustering/avg profile.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,49 +514,49 @@
         <v>58716.999999999993</v>
       </c>
       <c r="F2" s="2">
-        <v>0.18681564335698408</v>
+        <v>0.15724577209326088</v>
       </c>
       <c r="G2" s="2">
         <v>26901.343810000002</v>
       </c>
       <c r="H2" s="2">
-        <v>0.91388570390790225</v>
+        <v>0.83028594785155907</v>
       </c>
       <c r="I2" s="2">
-        <v>3.6417490580994437E-2</v>
+        <v>3.1035872632003202E-2</v>
       </c>
       <c r="J2" s="2">
-        <v>49.960971683666081</v>
+        <v>55.752496429881177</v>
       </c>
       <c r="K2" s="2">
         <v>36.516666666666673</v>
       </c>
       <c r="L2" s="2">
-        <v>3.6379309114502635E-3</v>
+        <v>2.787381280832904E-3</v>
       </c>
       <c r="M2">
-        <v>3.2938233580593473E-3</v>
+        <v>3.3721068855697531E-3</v>
       </c>
       <c r="N2">
-        <v>1.4024513522607722E-2</v>
+        <v>9.7552667881533398E-3</v>
       </c>
       <c r="O2">
-        <v>1.8506174289879558</v>
+        <v>2.1002889566337966</v>
       </c>
       <c r="P2">
-        <v>1.1688063906689699</v>
+        <v>1.6146348303444205</v>
       </c>
       <c r="Q2">
-        <v>33.901507691368209</v>
+        <v>51.658450479418228</v>
       </c>
       <c r="R2">
-        <v>9.0806833662219219E-4</v>
+        <v>5.2795612854880051E-4</v>
       </c>
       <c r="S2">
-        <v>6.3673122480590635E-2</v>
+        <v>5.2324426202519418E-2</v>
       </c>
       <c r="T2">
-        <v>138.31016875922501</v>
+        <v>129.74889980068235</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/avg profile.xlsx
+++ b/migforecasting/clustering/avg profile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>oktmo</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>factoriescap</t>
+  </si>
+  <si>
+    <t>ethnic</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,6 +146,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,6 +565,68 @@
         <v>129.74889980068235</v>
       </c>
     </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>54211.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.15215406325226194</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20609.998500000002</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.3671997638877359</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.7173477952095027E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>24.516709120574038</v>
+      </c>
+      <c r="K3" s="2">
+        <v>26.77</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.946081550962421E-3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2.4902465344068957E-3</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.1298340757957246E-2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.71875893491233334</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1.5076381395091445</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>131.17607709249879</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5.7183438938232523E-4</v>
+      </c>
+      <c r="S3" s="2">
+        <v>4.4197264418066269E-2</v>
+      </c>
+      <c r="T3" s="2">
+        <v>121.00557079577206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/migforecasting/clustering/avg profile.xlsx
+++ b/migforecasting/clustering/avg profile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>oktmo</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>ethnic</t>
+  </si>
+  <si>
+    <t>anti-industrial</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,6 +630,68 @@
         <v>121.00557079577206</v>
       </c>
     </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>65162.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.14341837713408784</v>
+      </c>
+      <c r="G4" s="2">
+        <v>23269.637880000002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.68190600422021852</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.3886437751774389E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>29.17560465543832</v>
+      </c>
+      <c r="K4" s="2">
+        <v>29.299999999999997</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5.6090542873584916E-3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2.4937655860349022E-3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.1785919815844993E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1.7330980241703415</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.60871950892000759</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>34.136996671398393</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.0435449836946071E-3</v>
+      </c>
+      <c r="S4" s="2">
+        <v>5.6527910991751376E-2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>112.85893363207359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/migforecasting/clustering/avg profile.xlsx
+++ b/migforecasting/clustering/avg profile.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,52 +582,52 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>54211.5</v>
+        <v>55234.666666666664</v>
       </c>
       <c r="F3" s="2">
-        <v>0.15215406325226194</v>
+        <v>0.14866871047168442</v>
       </c>
       <c r="G3" s="2">
-        <v>20609.998500000002</v>
+        <v>19979.499</v>
       </c>
       <c r="H3" s="2">
-        <v>0.3671997638877359</v>
+        <v>0.53457128373485241</v>
       </c>
       <c r="I3" s="2">
-        <v>1.7173477952095027E-2</v>
+        <v>1.7730410853087426E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>24.516709120574038</v>
+        <v>30.454603468111806</v>
       </c>
       <c r="K3" s="2">
-        <v>26.77</v>
+        <v>25.98</v>
       </c>
       <c r="L3" s="2">
-        <v>1.946081550962421E-3</v>
+        <v>2.3053155023415096E-3</v>
       </c>
       <c r="M3" s="2">
-        <v>2.4902465344068957E-3</v>
+        <v>2.582918939796253E-3</v>
       </c>
       <c r="N3" s="2">
-        <v>1.1298340757957246E-2</v>
+        <v>8.8428764544006069E-3</v>
       </c>
       <c r="O3" s="2">
-        <v>0.71875893491233334</v>
+        <v>0.51863563945348234</v>
       </c>
       <c r="P3" s="2">
-        <v>1.5076381395091445</v>
+        <v>1.0832573142470909</v>
       </c>
       <c r="Q3" s="2">
-        <v>131.17607709249879</v>
+        <v>86.929583411384144</v>
       </c>
       <c r="R3" s="2">
-        <v>5.7183438938232523E-4</v>
+        <v>4.7675372954183233E-4</v>
       </c>
       <c r="S3" s="2">
-        <v>4.4197264418066269E-2</v>
+        <v>4.6806353497803301E-2</v>
       </c>
       <c r="T3" s="2">
-        <v>121.00557079577206</v>
+        <v>129.03433757990146</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
